--- a/content/images/visualization_table.xlsx
+++ b/content/images/visualization_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolo\Documents\MNG\3. Semester\JupyterLite\content\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B9266C-0AA8-490C-A6F3-90059EADF568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6DC6FB-68E9-438C-98B8-88481E89F886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="0" windowWidth="28800" windowHeight="20985" xr2:uid="{E6F4810F-9E19-4F9B-9DBE-19D745486014}"/>
+    <workbookView xWindow="10875" yWindow="0" windowWidth="27630" windowHeight="20985" xr2:uid="{E6F4810F-9E19-4F9B-9DBE-19D745486014}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Index</t>
   </si>
   <si>
-    <t>Attribut1</t>
-  </si>
-  <si>
-    <t>Attribut2</t>
-  </si>
-  <si>
-    <t>Attribut3</t>
-  </si>
-  <si>
-    <t>Attribut4</t>
+    <t>Feature1</t>
+  </si>
+  <si>
+    <t>Feature2</t>
+  </si>
+  <si>
+    <t>Feature3</t>
+  </si>
+  <si>
+    <t>Feature4</t>
+  </si>
+  <si>
+    <t>Distanz_km</t>
+  </si>
+  <si>
+    <t>Dauer_min</t>
+  </si>
+  <si>
+    <t>Velo_bool</t>
+  </si>
+  <si>
+    <t>ÖV_Distanz_km</t>
+  </si>
+  <si>
+    <t>Transportmittel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> false</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ÖV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> true</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Velo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zu_Fuss </t>
+  </si>
+  <si>
+    <t>(Label)</t>
   </si>
 </sst>
 </file>
@@ -94,9 +127,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,14 +159,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>604631</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>166894</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>24848</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -147,7 +181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1830457" y="357394"/>
+          <a:off x="1830457" y="382242"/>
           <a:ext cx="630720" cy="1738106"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -192,7 +226,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Spalte / Attribut</a:t>
+            <a:t>Spalte / Feature</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -204,13 +238,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>3727</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -225,8 +259,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="616640" y="1724026"/>
-          <a:ext cx="3077403" cy="180976"/>
+          <a:off x="616640" y="1724025"/>
+          <a:ext cx="4758773" cy="189257"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,15 +709,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48CE3FDC-43D2-423F-ADE7-BC22603B0A94}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,49 +740,165 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>